--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Cnr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H2">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.10215567227846</v>
+        <v>2.168796</v>
       </c>
       <c r="N2">
-        <v>2.10215567227846</v>
+        <v>6.506387999999999</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9911642957173927</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9911642957173927</v>
       </c>
       <c r="Q2">
-        <v>395.5913929192083</v>
+        <v>441.960859202408</v>
       </c>
       <c r="R2">
-        <v>395.5913929192083</v>
+        <v>3977.647732821672</v>
       </c>
       <c r="S2">
-        <v>0.6509159294994957</v>
+        <v>0.6608417057030128</v>
       </c>
       <c r="T2">
-        <v>0.6509159294994957</v>
+        <v>0.6608417057030129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>62.7965473472026</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H3">
-        <v>62.7965473472026</v>
+        <v>611.344994</v>
       </c>
       <c r="I3">
-        <v>0.217209445152696</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J3">
-        <v>0.217209445152696</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.10215567227846</v>
+        <v>0.01933366666666667</v>
       </c>
       <c r="N3">
-        <v>2.10215567227846</v>
+        <v>0.058001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.00883570428260726</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.008835704282607262</v>
       </c>
       <c r="Q3">
-        <v>132.0081182054248</v>
+        <v>3.939846777443778</v>
       </c>
       <c r="R3">
-        <v>132.0081182054248</v>
+        <v>35.458620996994</v>
       </c>
       <c r="S3">
-        <v>0.217209445152696</v>
+        <v>0.005891053495807572</v>
       </c>
       <c r="T3">
-        <v>0.217209445152696</v>
+        <v>0.005891053495807574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.125741487561</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H4">
-        <v>38.125741487561</v>
+        <v>189.421768</v>
       </c>
       <c r="I4">
-        <v>0.1318746253478083</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J4">
-        <v>0.1318746253478083</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.10215567227846</v>
+        <v>2.168796</v>
       </c>
       <c r="N4">
-        <v>2.10215567227846</v>
+        <v>6.506387999999999</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9911642957173927</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9911642957173927</v>
       </c>
       <c r="Q4">
-        <v>80.14624372789856</v>
+        <v>136.939057583776</v>
       </c>
       <c r="R4">
-        <v>80.14624372789856</v>
+        <v>1232.451518253984</v>
       </c>
       <c r="S4">
-        <v>0.1318746253478083</v>
+        <v>0.2047580424980144</v>
       </c>
       <c r="T4">
-        <v>0.1318746253478083</v>
+        <v>0.2047580424980144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>63.14058933333333</v>
+      </c>
+      <c r="H5">
+        <v>189.421768</v>
+      </c>
+      <c r="I5">
+        <v>0.2065833519051582</v>
+      </c>
+      <c r="J5">
+        <v>0.2065833519051582</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.01933366666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.058001</v>
+      </c>
+      <c r="O5">
+        <v>0.00883570428260726</v>
+      </c>
+      <c r="P5">
+        <v>0.008835704282607262</v>
+      </c>
+      <c r="Q5">
+        <v>1.220739107307556</v>
+      </c>
+      <c r="R5">
+        <v>10.986651965768</v>
+      </c>
+      <c r="S5">
+        <v>0.001825309407143769</v>
+      </c>
+      <c r="T5">
+        <v>0.001825309407143769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>38.719942</v>
+      </c>
+      <c r="H6">
+        <v>116.159826</v>
+      </c>
+      <c r="I6">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="J6">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.168796</v>
+      </c>
+      <c r="N6">
+        <v>6.506387999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.9911642957173927</v>
+      </c>
+      <c r="P6">
+        <v>0.9911642957173927</v>
+      </c>
+      <c r="Q6">
+        <v>83.97565532983199</v>
+      </c>
+      <c r="R6">
+        <v>755.7808979684879</v>
+      </c>
+      <c r="S6">
+        <v>0.1255645475163655</v>
+      </c>
+      <c r="T6">
+        <v>0.1255645475163655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>38.719942</v>
+      </c>
+      <c r="H7">
+        <v>116.159826</v>
+      </c>
+      <c r="I7">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="J7">
+        <v>0.1266838888960214</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01933366666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.058001</v>
+      </c>
+      <c r="O7">
+        <v>0.00883570428260726</v>
+      </c>
+      <c r="P7">
+        <v>0.008835704282607262</v>
+      </c>
+      <c r="Q7">
+        <v>0.7485984519806665</v>
+      </c>
+      <c r="R7">
+        <v>6.737386067826</v>
+      </c>
+      <c r="S7">
+        <v>0.001119341379655919</v>
+      </c>
+      <c r="T7">
+        <v>0.001119341379655919</v>
       </c>
     </row>
   </sheetData>
